--- a/harjutustunnid/harjutused.xlsx
+++ b/harjutustunnid/harjutused.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15495" windowHeight="6885" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15495" windowHeight="6885"/>
   </bookViews>
   <sheets>
     <sheet name="1. harjutustund" sheetId="1" r:id="rId1"/>
@@ -650,9 +650,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0E+00"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0E+00"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -761,9 +761,6 @@
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -774,12 +771,6 @@
     <xf numFmtId="11" fontId="1" fillId="4" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -793,12 +784,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -810,10 +801,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1774,7 +1774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1785,34 +1785,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B5">
@@ -1823,15 +1823,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <f>10 *LOG(B5, 10)</f>
         <v>23.010299956639809</v>
       </c>
@@ -1840,23 +1840,23 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B13">
@@ -1867,15 +1867,15 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <f>10 ^ (B13 / 10)</f>
         <v>9.9999999999999995E-7</v>
       </c>
@@ -1885,23 +1885,23 @@
     </row>
     <row r="18" spans="1:7" ht="210.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B21">
@@ -1912,7 +1912,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B22">
@@ -1923,12 +1923,12 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B25">
@@ -1940,7 +1940,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B26" t="s">
@@ -1948,7 +1948,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B27" t="s">
@@ -1956,10 +1956,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="9">
         <f>B25 + B21</f>
         <v>-108.01029995663981</v>
       </c>
@@ -1968,10 +1968,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <f xml:space="preserve"> 10 ^ (B28/10)</f>
         <v>1.5811388300841881E-11</v>
       </c>
@@ -1980,23 +1980,23 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B35">
@@ -2007,7 +2007,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B36">
@@ -2018,12 +2018,12 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B39" t="s">
@@ -2031,7 +2031,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B40">
@@ -2043,7 +2043,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B41">
@@ -2055,10 +2055,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="9">
         <f>B40 *B41</f>
         <v>67.066072502969547</v>
       </c>
@@ -2067,23 +2067,23 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B46">
@@ -2094,7 +2094,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B47">
@@ -2105,15 +2105,15 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="11">
         <f xml:space="preserve"> 5 * 10 ^ 6</f>
         <v>5000000</v>
       </c>
@@ -2122,10 +2122,10 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="11">
         <f xml:space="preserve"> 10 ^ (B47/10)</f>
         <v>1.2589254117941641E-11</v>
       </c>
@@ -2134,10 +2134,10 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="9">
         <f xml:space="preserve"> 10 * LOG(B50/B51)</f>
         <v>175.98970004336022</v>
       </c>
@@ -2146,10 +2146,10 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="6">
         <f>B50/B51</f>
         <v>3.9716411736214176E+17</v>
       </c>
@@ -2158,29 +2158,29 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="192.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B60">
@@ -2191,7 +2191,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B61">
@@ -2202,7 +2202,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B62">
@@ -2213,23 +2213,23 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B66" s="18">
+      <c r="B66" s="15">
         <f>(B60-B61) * 1000</f>
         <v>3.0000000000001137</v>
       </c>
@@ -2238,10 +2238,10 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B67" s="17">
+      <c r="B67" s="14">
         <f xml:space="preserve"> 10 ^ (B62/10)</f>
         <v>15.848931924611136</v>
       </c>
@@ -2250,10 +2250,10 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B68" s="12">
+      <c r="B68" s="9">
         <f>B66 * LOG(1 + B67,2)</f>
         <v>12.223755704716746</v>
       </c>
@@ -2262,26 +2262,26 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
+      <c r="A69" s="5"/>
     </row>
     <row r="70" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B72">
@@ -2292,7 +2292,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B73">
@@ -2303,7 +2303,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B74">
@@ -2315,15 +2315,15 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B77" s="18">
+      <c r="B77" s="15">
         <f>B72 *1000</f>
         <v>200000</v>
       </c>
@@ -2332,10 +2332,10 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B78" s="18">
+      <c r="B78" s="15">
         <f>B74 * (10 ^ 6)</f>
         <v>76</v>
       </c>
@@ -2344,10 +2344,10 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="19">
+      <c r="B79" s="16">
         <f xml:space="preserve"> B73/ B78</f>
         <v>1.0526315789473684E-2</v>
       </c>
@@ -2356,10 +2356,10 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B80" s="12">
+      <c r="B80" s="9">
         <f xml:space="preserve"> B77 *LOG(1 + B79, 2)</f>
         <v>3021.3784780416777</v>
       </c>
@@ -2368,26 +2368,26 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
+      <c r="A81" s="5"/>
     </row>
     <row r="84" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B86">
@@ -2398,7 +2398,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B87">
@@ -2409,18 +2409,18 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
+      <c r="A88" s="5"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B91" s="18">
+      <c r="B91" s="15">
         <f>B87 *1000</f>
         <v>6250</v>
       </c>
@@ -2429,10 +2429,10 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B92" s="12">
+      <c r="B92" s="9">
         <f xml:space="preserve"> 2 ^ (B86/B91) - 1</f>
         <v>866.06719985922769</v>
       </c>
@@ -2441,19 +2441,19 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
+      <c r="A93" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A19:G19"/>
     <mergeCell ref="A33:G33"/>
     <mergeCell ref="A44:G44"/>
     <mergeCell ref="A58:G58"/>
     <mergeCell ref="A70:G70"/>
     <mergeCell ref="A84:G84"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2475,39 +2475,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="189" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B6" t="s">
@@ -2515,15 +2515,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B9">
@@ -2534,7 +2534,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B10">
@@ -2549,10 +2549,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <f>1 / B10</f>
         <v>0.16666666666666666</v>
       </c>
@@ -2564,24 +2564,24 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B16" t="s">
@@ -2589,7 +2589,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B17" t="s">
@@ -2597,30 +2597,30 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+      <c r="A18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="A20" s="5"/>
       <c r="B20" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="5"/>
       <c r="B21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="15">
         <f>30800 / 2 * PI()</f>
         <v>48380.526865282816</v>
       </c>
@@ -2632,10 +2632,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="15">
         <f>21800 / 2 * PI()</f>
         <v>34243.359924128745</v>
       </c>
@@ -2644,10 +2644,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="15">
         <f xml:space="preserve"> MAX(B22:B23)</f>
         <v>48380.526865282816</v>
       </c>
@@ -2656,10 +2656,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <f xml:space="preserve"> 2 *B24</f>
         <v>96761.053730565633</v>
       </c>
@@ -2671,10 +2671,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <f>1 / B25</f>
         <v>1.0334736564408788E-5</v>
       </c>
@@ -2686,24 +2686,24 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B31">
@@ -2714,23 +2714,23 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
+      <c r="A35" s="5"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <f xml:space="preserve"> 2 *B31</f>
         <v>8</v>
       </c>
@@ -2742,10 +2742,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <f>1 / B36</f>
         <v>0.125</v>
       </c>
@@ -2757,30 +2757,30 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="174" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B46">
@@ -2791,7 +2791,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B47">
@@ -2802,15 +2802,15 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
+      <c r="A48" s="5"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B50">
@@ -2822,7 +2822,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B51" t="s">
@@ -2830,7 +2830,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B52" t="s">
@@ -2838,7 +2838,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B53">
@@ -2850,10 +2850,10 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="4">
         <f>ROUNDUP(B53,0)</f>
         <v>11</v>
       </c>
@@ -2862,24 +2862,24 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B59">
@@ -2890,7 +2890,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B60">
@@ -2901,7 +2901,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B61">
@@ -2912,12 +2912,12 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="s">
+      <c r="A63" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B64">
@@ -2929,7 +2929,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B65" t="s">
@@ -2937,10 +2937,10 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B66" s="21">
+      <c r="B66" s="18">
         <f>(B64^2) / 12</f>
         <v>3.2814534505208331E-5</v>
       </c>
@@ -2949,30 +2949,30 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
+      <c r="A67" s="5"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
+      <c r="A68" s="5"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B71">
@@ -2983,7 +2983,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B72">
@@ -2994,7 +2994,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B73">
@@ -3005,7 +3005,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B74">
@@ -3016,7 +3016,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B75" t="s">
@@ -3024,15 +3024,15 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
+      <c r="A76" s="5"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="20" t="s">
+      <c r="A78" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B79" t="s">
@@ -3040,7 +3040,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B80">
@@ -3052,10 +3052,10 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B81" s="23">
+      <c r="B81" s="20">
         <f>B80/B66</f>
         <v>3809.2876185752375</v>
       </c>
@@ -3064,10 +3064,10 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B82" s="23">
+      <c r="B82" s="20">
         <f>10 * LOG(B81)</f>
         <v>35.808437651115419</v>
       </c>
@@ -3076,30 +3076,30 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="214.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B90">
@@ -3110,7 +3110,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B91">
@@ -3124,7 +3124,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B92">
@@ -3132,21 +3132,21 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
+      <c r="A93" s="5"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
+      <c r="A94" s="5"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="6"/>
+      <c r="A95" s="5"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="20" t="s">
+      <c r="A97" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B98" t="s">
@@ -3157,7 +3157,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B99">
@@ -3173,14 +3173,14 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B100" s="13">
+      <c r="B100" s="10">
         <f>(1+LN(B92*B99))/(1+LN(B92))</f>
         <v>0.74669288582146642</v>
       </c>
-      <c r="C100" s="13">
+      <c r="C100" s="10">
         <f>(1+LN(B92*C99))/(1+LN(B92))</f>
         <v>0.94743402439090041</v>
       </c>
@@ -3192,14 +3192,14 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B101" s="12">
+      <c r="B101" s="9">
         <f>B100*$B$90</f>
         <v>1.045370040150053</v>
       </c>
-      <c r="C101" s="12">
+      <c r="C101" s="9">
         <f>C100*$B$90</f>
         <v>1.3264076341472606</v>
       </c>
@@ -3208,29 +3208,29 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="26"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B108">
@@ -3241,7 +3241,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B109">
@@ -3252,15 +3252,15 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="20" t="s">
+      <c r="A111" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B112" s="21">
+      <c r="B112" s="18">
         <f xml:space="preserve"> 2 * B108 *B109</f>
         <v>1411200</v>
       </c>
@@ -3269,10 +3269,10 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B113" s="21">
+      <c r="B113" s="18">
         <f>B112/8</f>
         <v>176400</v>
       </c>
@@ -3281,10 +3281,10 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B114" s="23">
+      <c r="B114" s="20">
         <f>B113/1000</f>
         <v>176.4</v>
       </c>
@@ -3293,27 +3293,27 @@
       </c>
     </row>
     <row r="117" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="9" t="s">
+      <c r="A117" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="26"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="26"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="s">
+      <c r="A119" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B119" s="18">
+      <c r="B119" s="15">
         <f>B114</f>
         <v>176.4</v>
       </c>
@@ -3322,7 +3322,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="6" t="s">
+      <c r="A120" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B120">
@@ -3333,12 +3333,12 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="20" t="s">
+      <c r="A122" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="6" t="s">
+      <c r="A123" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B123">
@@ -3350,10 +3350,10 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="6" t="s">
+      <c r="A124" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B124" s="23">
+      <c r="B124" s="20">
         <f>B123/B120</f>
         <v>7.056</v>
       </c>
@@ -3362,8 +3362,8 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="6"/>
-      <c r="B125" s="6"/>
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3389,37 +3389,37 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B4">
@@ -3450,7 +3450,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3467,10 +3467,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <f>(20 * B8) ^ 2</f>
         <v>22320044.640089281</v>
       </c>
@@ -3479,7 +3479,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="22">
+      <c r="B10" s="19">
         <f>B9/ 10 ^ 6</f>
         <v>22.320044640089282</v>
       </c>
@@ -3488,24 +3488,24 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B14">
@@ -3547,7 +3547,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B20">
@@ -3568,7 +3568,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>140</v>
       </c>
       <c r="B21">
@@ -3587,7 +3587,7 @@
       <c r="A23" t="s">
         <v>138</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="15">
         <f>B20/800 * 300</f>
         <v>6</v>
       </c>
@@ -3611,7 +3611,7 @@
       <c r="A26" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <f>B23*$F$14</f>
         <v>15.24</v>
       </c>
@@ -3623,7 +3623,7 @@
       <c r="A27" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <f>B24*$F$14</f>
         <v>5.08</v>
       </c>
@@ -3632,7 +3632,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3640,27 +3640,27 @@
     <row r="32" spans="1:3" ht="180" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:8" ht="201.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="22" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3686,7 +3686,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B42">
@@ -3697,7 +3697,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B43">
@@ -3708,7 +3708,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B44">
@@ -3719,10 +3719,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="15">
         <f>SUM(B42:B44)</f>
         <v>12</v>
       </c>
@@ -3740,10 +3740,10 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <f>B46/8</f>
         <v>12</v>
       </c>
@@ -3753,27 +3753,27 @@
     </row>
     <row r="49" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="22" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3819,15 +3819,15 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B60" s="24">
+      <c r="B60" s="21">
         <f>B53*B54*B55*B56</f>
         <v>25344000</v>
       </c>
@@ -3836,10 +3836,10 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B62" s="22">
+      <c r="B62" s="19">
         <f>B60/(B57*10^6)</f>
         <v>16.896000000000001</v>
       </c>
@@ -3864,8 +3864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3875,36 +3875,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="8"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>168</v>
       </c>
       <c r="B5">
@@ -3913,7 +3913,7 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>177</v>
       </c>
       <c r="F5">
@@ -3925,7 +3925,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B6">
@@ -3936,7 +3936,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B7">
@@ -3947,7 +3947,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
       <c r="B8">
@@ -3958,7 +3958,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>175</v>
       </c>
       <c r="B9">
@@ -3969,33 +3969,33 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="A10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="10">
         <f>10 ^ (B9/10)</f>
         <v>3.3113112148259116</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="11">
         <f>(10^(B6/20)) * 10 ^ -6</f>
         <v>6.3095734448019318E-7</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>180</v>
       </c>
       <c r="B14" t="s">
@@ -4003,10 +4003,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="11">
         <f>B13^2/B7</f>
         <v>7.9621434110699437E-15</v>
       </c>
@@ -4015,7 +4015,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>183</v>
       </c>
       <c r="B17" t="s">
@@ -4023,10 +4023,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <f>((B12*F5)/(4*PI()*B8*10^6)) * SQRT(B5/B15)</f>
         <v>37966227.94102487</v>
       </c>
@@ -4035,10 +4035,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="20">
         <f>B18/1000</f>
         <v>37966.227941024867</v>
       </c>
@@ -4047,23 +4047,23 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>174</v>
       </c>
       <c r="B23">
@@ -4072,7 +4072,7 @@
       <c r="C23" t="s">
         <v>188</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>177</v>
       </c>
       <c r="F23">
@@ -4084,7 +4084,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>189</v>
       </c>
       <c r="B24">
@@ -4095,7 +4095,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>175</v>
       </c>
       <c r="B25">
@@ -4106,7 +4106,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B26">
@@ -4117,38 +4117,38 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
+      <c r="A27" s="5"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+      <c r="A28" s="5"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="10" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="10">
         <f>20*LOG10(B24*1000) + 20 *LOG10(B23 * 10 ^ 9) - 148</f>
         <v>125.97940008672037</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="9">
         <f>B26-B25-B25+B31</f>
         <v>-5.0205999132796251</v>
       </c>
@@ -4157,73 +4157,73 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="11"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
+      <c r="A36" s="5"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
+      <c r="A37" s="5"/>
     </row>
     <row r="38" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
     </row>
     <row r="41" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="44" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="163.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B50">
@@ -4232,7 +4232,7 @@
       <c r="C50" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="5" t="s">
         <v>177</v>
       </c>
       <c r="F50">
@@ -4244,7 +4244,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>198</v>
       </c>
       <c r="B51">
@@ -4262,7 +4262,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="5" t="s">
         <v>174</v>
       </c>
       <c r="B52">
@@ -4280,24 +4280,24 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
+      <c r="A53" s="5"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
+      <c r="A54" s="5"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
+      <c r="A55" s="5"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="10">
         <f>D51/D52</f>
         <v>0.4</v>
       </c>
@@ -4309,14 +4309,14 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="13"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="10"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="6">
         <f>0.5*EXP(-B50/(B57 * 2))</f>
         <v>9.6522706811385465E-4</v>
       </c>
